--- a/ochoReinas/reinas.xlsx
+++ b/ochoReinas/reinas.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Germán\Source\repos\Recursividad\ochoReinas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{096507A2-4064-4CE8-9BAF-E6D3618BEC0E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD5417B4-4353-433A-AAD5-7BC7828BAEE9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{5030DDBD-B42C-4719-B3AC-57644DDF103F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{5030DDBD-B42C-4719-B3AC-57644DDF103F}"/>
   </bookViews>
   <sheets>
-    <sheet name="ochoReinas" sheetId="1" r:id="rId1"/>
+    <sheet name="cuatroReinas" sheetId="2" r:id="rId1"/>
+    <sheet name="ochoReinas" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="1">
+  <si>
+    <t>R</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -112,6 +117,55 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>333143</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>18881</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagen 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F6486317-AD1D-4E28-993E-E26AF8938564}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4064000" y="190500"/>
+          <a:ext cx="1857143" cy="1352381"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -410,11 +464,62 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1501CB89-52DA-4393-B9D3-7348F6FD6B54}">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="8" width="4.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="2"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="1"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="2"/>
+      <c r="B4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E3D9BF7-22D9-4577-8B11-A5B08C0744FB}">
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -423,7 +528,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="1"/>
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="B1" s="2"/>
       <c r="C1" s="1"/>
       <c r="D1" s="2"/>
@@ -439,7 +546,9 @@
       <c r="D2" s="1"/>
       <c r="E2" s="2"/>
       <c r="F2" s="1"/>
-      <c r="G2" s="2"/>
+      <c r="G2" s="2" t="s">
+        <v>0</v>
+      </c>
       <c r="H2" s="1"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -447,7 +556,9 @@
       <c r="B3" s="2"/>
       <c r="C3" s="1"/>
       <c r="D3" s="2"/>
-      <c r="E3" s="1"/>
+      <c r="E3" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="F3" s="2"/>
       <c r="G3" s="1"/>
       <c r="H3" s="2"/>
@@ -460,11 +571,15 @@
       <c r="E4" s="2"/>
       <c r="F4" s="1"/>
       <c r="G4" s="2"/>
-      <c r="H4" s="1"/>
+      <c r="H4" s="1" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
-      <c r="B5" s="2"/>
+      <c r="B5" s="2" t="s">
+        <v>0</v>
+      </c>
       <c r="C5" s="1"/>
       <c r="D5" s="2"/>
       <c r="E5" s="1"/>
@@ -476,7 +591,9 @@
       <c r="A6" s="2"/>
       <c r="B6" s="1"/>
       <c r="C6" s="2"/>
-      <c r="D6" s="1"/>
+      <c r="D6" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="E6" s="2"/>
       <c r="F6" s="1"/>
       <c r="G6" s="2"/>
@@ -488,14 +605,18 @@
       <c r="C7" s="1"/>
       <c r="D7" s="2"/>
       <c r="E7" s="1"/>
-      <c r="F7" s="2"/>
+      <c r="F7" s="2" t="s">
+        <v>0</v>
+      </c>
       <c r="G7" s="1"/>
       <c r="H7" s="2"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="1"/>
-      <c r="C8" s="2"/>
+      <c r="C8" s="2" t="s">
+        <v>0</v>
+      </c>
       <c r="D8" s="1"/>
       <c r="E8" s="2"/>
       <c r="F8" s="1"/>
@@ -505,5 +626,6 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/ochoReinas/reinas.xlsx
+++ b/ochoReinas/reinas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Germán\Source\repos\Recursividad\ochoReinas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD5417B4-4353-433A-AAD5-7BC7828BAEE9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C32A47C6-6577-4815-91A3-1A27F2A4C2C2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{5030DDBD-B42C-4719-B3AC-57644DDF103F}"/>
   </bookViews>
@@ -117,55 +117,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>333143</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>18881</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Imagen 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F6486317-AD1D-4E28-993E-E26AF8938564}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4064000" y="190500"/>
-          <a:ext cx="1857143" cy="1352381"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -468,7 +419,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -519,7 +470,7 @@
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -626,6 +577,5 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>